--- a/TestData/TMTT0017889_CommentsAndContactsMappingToEngUponConversionFromOpportunity.xlsx
+++ b/TestData/TMTT0017889_CommentsAndContactsMappingToEngUponConversionFromOpportunity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgoyal0427\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGoyal0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC86A25-6DC5-4162-9D94-E6A232254ABE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CACD0F4-62F4-4C9C-8537-00A1A4F446EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,7 +869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/TestData/TMTT0017889_CommentsAndContactsMappingToEngUponConversionFromOpportunity.xlsx
+++ b/TestData/TMTT0017889_CommentsAndContactsMappingToEngUponConversionFromOpportunity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGoyal0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CACD0F4-62F4-4C9C-8537-00A1A4F446EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01835E44-CBEF-436F-B4B0-CF57B62887CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -52,12 +52,6 @@
     <t>AdditonalSubject</t>
   </si>
   <si>
-    <t>BUS - Business Services</t>
-  </si>
-  <si>
-    <t>Dealership &amp; Rental Services</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -269,6 +263,12 @@
   </si>
   <si>
     <t>Abax</t>
+  </si>
+  <si>
+    <t>HC - Healthcare</t>
+  </si>
+  <si>
+    <t>Dental</t>
   </si>
 </sst>
 </file>
@@ -312,11 +312,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -604,221 +602,217 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="3"/>
-    <col min="15" max="17" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="8.85546875" style="3"/>
-    <col min="26" max="26" width="11.28515625" style="3" customWidth="1"/>
-    <col min="27" max="30" width="8.85546875" style="3"/>
-    <col min="31" max="31" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.33203125" customWidth="1"/>
+    <col min="31" max="31" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="L2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="N2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="U2" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="V2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="X2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -831,33 +825,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -873,36 +867,36 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -919,66 +913,66 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -995,33 +989,33 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TMTT0017889_CommentsAndContactsMappingToEngUponConversionFromOpportunity.xlsx
+++ b/TestData/TMTT0017889_CommentsAndContactsMappingToEngUponConversionFromOpportunity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGoyal0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01835E44-CBEF-436F-B4B0-CF57B62887CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A452D6EB-6F55-4E50-A6ED-C9E838B619C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
   <si>
     <t>Client</t>
   </si>
@@ -227,9 +227,6 @@
   </si>
   <si>
     <t>Buyside</t>
-  </si>
-  <si>
-    <t>Rob Oudman</t>
   </si>
   <si>
     <t>Michael Birney</t>
@@ -602,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,10 +734,10 @@
         <v>65</v>
       </c>
       <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
         <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -767,7 +764,7 @@
         <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>35</v>
@@ -785,7 +782,7 @@
         <v>24</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -845,13 +842,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -877,26 +874,26 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
         <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -972,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
